--- a/AAA-Luban-Excel/Datas/item_Tools.xlsx
+++ b/AAA-Luban-Excel/Datas/item_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21360" windowHeight="8280"/>
+    <workbookView windowWidth="17370" windowHeight="9285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>##var</t>
   </si>
@@ -41,6 +41,9 @@
     <t>DESCRIBE</t>
   </si>
   <si>
+    <t>prefabName</t>
+  </si>
+  <si>
     <t>interactEffectID</t>
   </si>
   <si>
@@ -77,6 +80,9 @@
     <t>描述</t>
   </si>
   <si>
+    <t>预制体名称</t>
+  </si>
+  <si>
     <t>物品在地上时，玩家与其的交互是哪一种</t>
   </si>
   <si>
@@ -90,6 +96,9 @@
   </si>
   <si>
     <t>开启后，以扇形照亮鼠标指示方向（最多生效一个），每秒消耗1点耐久，归0时自动销毁，被丢掉后，以玩家丢掉时的角色朝向放置（只有左右），并保持丢掉时的开启或关闭状态</t>
+  </si>
+  <si>
+    <t>FlashLight</t>
   </si>
   <si>
     <t>1</t>
@@ -103,6 +112,9 @@
 （玩家靠近时可以按E捕捉，但萤火虫在白天是不可见也不可交互的）</t>
   </si>
   <si>
+    <t>Firefly</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
@@ -113,22 +125,34 @@
 如果散落在地，每秒对身边小范围内的单位造成伤害（包含玩家），耐久归0时自动销毁</t>
   </si>
   <si>
+    <t>WowTentacle</t>
+  </si>
+  <si>
     <t>怀表</t>
   </si>
   <si>
     <t>使用时，会显示当前的时间，耐久-1</t>
   </si>
   <si>
+    <t>PocketWatch</t>
+  </si>
+  <si>
     <t>燃液补充瓶</t>
   </si>
   <si>
     <t>开启后，每秒消耗1耐久，使玩家手中的打火机耐久+1</t>
   </si>
   <si>
+    <t>FuelCan</t>
+  </si>
+  <si>
     <t>八音盒</t>
   </si>
   <si>
     <t>开启后，随身响起八音盒的音乐，角色每秒恢复1点San值，最多生效1个。</t>
+  </si>
+  <si>
+    <t>MusicBox</t>
   </si>
 </sst>
 </file>
@@ -756,7 +780,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -770,6 +794,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1092,23 +1119,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="15.0666666666667" style="1" customWidth="1"/>
     <col min="4" max="4" width="90" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.6666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.2" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.4666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7666666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.2" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.4666666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1124,201 +1152,231 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="4"/>
     </row>
-    <row r="4" ht="40.5" spans="1:8">
+    <row r="4" ht="40.5" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="G4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="6"/>
     </row>
-    <row r="5" ht="27" spans="2:7">
+    <row r="5" ht="27" spans="2:8">
       <c r="B5" s="1">
         <v>250001</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1001</v>
+        <v>21</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="F5" s="1">
+        <v>900001</v>
+      </c>
+      <c r="G5" s="1">
         <v>200</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>21</v>
+      <c r="H5" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="6" ht="40.5" spans="2:7">
+    <row r="6" ht="40.5" spans="2:8">
       <c r="B6" s="1">
         <v>250002</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1001</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1">
+        <v>900001</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="7" ht="40.5" spans="2:7">
+    <row r="7" ht="40.5" spans="2:8">
       <c r="B7" s="1">
         <v>250003</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1001</v>
+        <v>30</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="F7" s="1">
+        <v>900001</v>
+      </c>
+      <c r="G7" s="1">
         <v>100</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>24</v>
+      <c r="H7" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:8">
       <c r="B8" s="1">
         <v>250004</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1">
+        <v>900001</v>
+      </c>
+      <c r="G8" s="1">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="1">
-        <v>1001</v>
-      </c>
-      <c r="F8" s="1">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:8">
       <c r="B9" s="1">
         <v>250005</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1001</v>
+        <v>36</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="F9" s="1">
+        <v>900001</v>
+      </c>
+      <c r="G9" s="1">
         <v>50</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:8">
       <c r="B10" s="1">
         <v>250006</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1001</v>
+      <c r="C10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="F10" s="1">
+        <v>900001</v>
+      </c>
+      <c r="G10" s="1">
         <v>120</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>1</v>
       </c>
     </row>

--- a/AAA-Luban-Excel/Datas/item_Tools.xlsx
+++ b/AAA-Luban-Excel/Datas/item_Tools.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A2E5C6-2412-427F-96EC-8A29E5E8F9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7A73B6-E183-46F8-BC55-296168004DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="885" windowWidth="23685" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
     <t>DESCRIBE</t>
   </si>
   <si>
-    <t>prefabName</t>
-  </si>
-  <si>
     <t>interactEffectID</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
   </si>
   <si>
     <t>描述</t>
-  </si>
-  <si>
-    <t>预制体名称</t>
   </si>
   <si>
     <t>物品在地上时，玩家与其的交互是哪一种</t>
@@ -130,24 +124,6 @@
     <t>开启后，随身响起八音盒的音乐，角色每秒恢复1点San值，最多生效1个。</t>
   </si>
   <si>
-    <t>Tool_FlashLight</t>
-  </si>
-  <si>
-    <t>Tool_Firefly</t>
-  </si>
-  <si>
-    <t>Tool_WowTentacle</t>
-  </si>
-  <si>
-    <t>Tool_PocketWatch</t>
-  </si>
-  <si>
-    <t>Tool_FuelCan</t>
-  </si>
-  <si>
-    <t>Tool_MusicBox</t>
-  </si>
-  <si>
     <t>IconName</t>
   </si>
   <si>
@@ -170,6 +146,30 @@
   </si>
   <si>
     <t>Icon_Tool_MusicBox</t>
+  </si>
+  <si>
+    <t>SpriteName</t>
+  </si>
+  <si>
+    <t>渲染图片</t>
+  </si>
+  <si>
+    <t>Sprite_Tool_FlashLight</t>
+  </si>
+  <si>
+    <t>Sprite_Tool_Firefly</t>
+  </si>
+  <si>
+    <t>Sprite_Tool_WowTentacle</t>
+  </si>
+  <si>
+    <t>Sprite_Tool_PocketWatch</t>
+  </si>
+  <si>
+    <t>Sprite_Tool_FuelCan</t>
+  </si>
+  <si>
+    <t>Sprite_Tool_MusicBox</t>
   </si>
 </sst>
 </file>
@@ -219,7 +219,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -233,9 +233,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -514,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -525,16 +522,16 @@
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
     <col min="4" max="4" width="90" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="28.140625" customWidth="1"/>
-    <col min="13" max="13" width="27.42578125" customWidth="1"/>
-    <col min="14" max="14" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="27.42578125" customWidth="1"/>
+    <col min="13" max="13" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27">
+    <row r="1" spans="1:12" ht="27">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -550,271 +547,271 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="40.5">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="40.5">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="6" t="s">
+      <c r="H4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="45">
+    <row r="5" spans="1:12" ht="45">
       <c r="B5" s="1">
         <v>250001</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1">
+        <v>900001</v>
+      </c>
+      <c r="F5" s="1">
+        <v>200</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="F5" s="1">
-        <v>900001</v>
-      </c>
-      <c r="G5" s="1">
-        <v>200</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" ht="60">
+      <c r="J5" s="2"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" ht="60">
       <c r="B6" s="1">
         <v>250002</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1">
+        <v>900001</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="G6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="F6" s="1">
-        <v>900001</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" ht="60">
+      <c r="J6" s="2"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" ht="60">
       <c r="B7" s="1">
         <v>250003</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1">
+        <v>900001</v>
+      </c>
+      <c r="F7" s="1">
+        <v>100</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="F7" s="1">
-        <v>900001</v>
-      </c>
-      <c r="G7" s="1">
-        <v>100</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="J7" s="2"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="B8" s="1">
         <v>250004</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1">
+        <v>900001</v>
+      </c>
+      <c r="F8" s="1">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F8" s="1">
-        <v>900001</v>
-      </c>
-      <c r="G8" s="1">
-        <v>10</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="J8" s="2"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="B9" s="1">
         <v>250005</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1">
+        <v>900001</v>
+      </c>
+      <c r="F9" s="1">
+        <v>50</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="F9" s="1">
-        <v>900001</v>
-      </c>
-      <c r="G9" s="1">
-        <v>50</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K9" s="2"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="J9" s="2"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="B10" s="1">
         <v>250006</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="C10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1">
+        <v>900001</v>
+      </c>
+      <c r="F10" s="1">
+        <v>120</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="F10" s="1">
-        <v>900001</v>
-      </c>
-      <c r="G10" s="1">
-        <v>120</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="M10" s="1"/>
+      <c r="J10" s="2"/>
+      <c r="L10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAA-Luban-Excel/Datas/item_Tools.xlsx
+++ b/AAA-Luban-Excel/Datas/item_Tools.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7A73B6-E183-46F8-BC55-296168004DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FB85DE-3824-45C9-A684-0DC9096629F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
   <si>
     <t>##var</t>
   </si>
@@ -130,46 +130,55 @@
     <t>图标名称</t>
   </si>
   <si>
-    <t>Icon_Tool_FlashLight</t>
-  </si>
-  <si>
-    <t>Icon_Tool_Firefly</t>
-  </si>
-  <si>
-    <t>Icon_Tool_WowTentacle</t>
-  </si>
-  <si>
-    <t>Icon_Tool_PocketWatch</t>
-  </si>
-  <si>
-    <t>Icon_Tool_FuelCan</t>
-  </si>
-  <si>
-    <t>Icon_Tool_MusicBox</t>
-  </si>
-  <si>
     <t>SpriteName</t>
   </si>
   <si>
     <t>渲染图片</t>
   </si>
   <si>
-    <t>Sprite_Tool_FlashLight</t>
-  </si>
-  <si>
-    <t>Sprite_Tool_Firefly</t>
-  </si>
-  <si>
-    <t>Sprite_Tool_WowTentacle</t>
-  </si>
-  <si>
-    <t>Sprite_Tool_PocketWatch</t>
-  </si>
-  <si>
-    <t>Sprite_Tool_FuelCan</t>
-  </si>
-  <si>
-    <t>Sprite_Tool_MusicBox</t>
+    <t>Icon_Item_Tool_FlashLight</t>
+  </si>
+  <si>
+    <t>Icon_Item_Tool_Firefly</t>
+  </si>
+  <si>
+    <t>Icon_Item_Tool_WowTentacle</t>
+  </si>
+  <si>
+    <t>Icon_Item_Tool_PocketWatch</t>
+  </si>
+  <si>
+    <t>Icon_Item_Tool_FuelCan</t>
+  </si>
+  <si>
+    <t>Icon_Item_Tool_MusicBox</t>
+  </si>
+  <si>
+    <t>Sprite_Item_Tool_FlashLight</t>
+  </si>
+  <si>
+    <t>Sprite_Item_Tool_Firefly</t>
+  </si>
+  <si>
+    <t>Sprite_Item_Tool_WowTentacle</t>
+  </si>
+  <si>
+    <t>Sprite_Item_Tool_PocketWatch</t>
+  </si>
+  <si>
+    <t>Sprite_Item_Tool_FuelCan</t>
+  </si>
+  <si>
+    <t>Sprite_Item_Tool_MusicBox</t>
+  </si>
+  <si>
+    <t>PrefabName</t>
+  </si>
+  <si>
+    <t>预制体名称</t>
+  </si>
+  <si>
+    <t>P_Item_Tool</t>
   </si>
 </sst>
 </file>
@@ -511,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -525,13 +534,16 @@
     <col min="5" max="5" width="18.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.140625" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" customWidth="1"/>
+    <col min="8" max="8" width="34" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
     <col min="12" max="12" width="27.42578125" customWidth="1"/>
     <col min="13" max="13" width="24.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" customWidth="1"/>
+    <col min="16" max="16" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27">
+    <row r="1" spans="1:13" ht="27">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -557,10 +569,13 @@
         <v>33</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>35</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -588,8 +603,11 @@
       <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="J2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -615,8 +633,11 @@
       <c r="I3" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="40.5">
+      <c r="J3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="40.5">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -642,10 +663,13 @@
         <v>34</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="45">
+        <v>36</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="45">
       <c r="B5" s="1">
         <v>250001</v>
       </c>
@@ -664,16 +688,19 @@
       <c r="G5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>35</v>
+      <c r="H5" t="s">
+        <v>37</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" ht="60">
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" ht="60">
       <c r="B6" s="1">
         <v>250002</v>
       </c>
@@ -692,16 +719,19 @@
       <c r="G6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>36</v>
+      <c r="H6" t="s">
+        <v>38</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" ht="60">
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" ht="60">
       <c r="B7" s="1">
         <v>250003</v>
       </c>
@@ -720,16 +750,19 @@
       <c r="G7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>37</v>
+      <c r="H7" t="s">
+        <v>39</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="B8" s="1">
         <v>250004</v>
       </c>
@@ -748,16 +781,19 @@
       <c r="G8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>38</v>
+      <c r="H8" t="s">
+        <v>40</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="B9" s="1">
         <v>250005</v>
       </c>
@@ -776,16 +812,19 @@
       <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>39</v>
+      <c r="H9" t="s">
+        <v>41</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="B10" s="1">
         <v>250006</v>
       </c>
@@ -804,14 +843,17 @@
       <c r="G10" s="1">
         <v>1</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>40</v>
+      <c r="H10" t="s">
+        <v>42</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAA-Luban-Excel/Datas/item_Tools.xlsx
+++ b/AAA-Luban-Excel/Datas/item_Tools.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FB85DE-3824-45C9-A684-0DC9096629F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -43,6 +50,15 @@
     <t>weight</t>
   </si>
   <si>
+    <t>IconName</t>
+  </si>
+  <si>
+    <t>SpriteName</t>
+  </si>
+  <si>
+    <t>PrefabName</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -79,6 +95,15 @@
     <t>注意，更详细的功能效果并未配进该表中</t>
   </si>
   <si>
+    <t>图标名称</t>
+  </si>
+  <si>
+    <t>渲染图片</t>
+  </si>
+  <si>
+    <t>预制体名称</t>
+  </si>
+  <si>
     <t>聚光手电</t>
   </si>
   <si>
@@ -86,6 +111,15 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>Icon_Item_Tool_FlashLight</t>
+  </si>
+  <si>
+    <t>Sprite_Item_Tool_FlashLight</t>
+  </si>
+  <si>
+    <t>P_Item_Tool</t>
   </si>
   <si>
     <t>萤火虫</t>
@@ -99,6 +133,12 @@
     <t>0</t>
   </si>
   <si>
+    <t>Icon_Item_Tool_Firefly</t>
+  </si>
+  <si>
+    <t>Sprite_Item_Tool_Firefly</t>
+  </si>
+  <si>
     <t>奇妙触手</t>
   </si>
   <si>
@@ -106,90 +146,63 @@
 如果散落在地，每秒对身边小范围内的单位造成伤害（包含玩家），耐久归0时自动销毁</t>
   </si>
   <si>
+    <t>Icon_Item_Tool_WowTentacle</t>
+  </si>
+  <si>
+    <t>Sprite_Item_Tool_WowTentacle</t>
+  </si>
+  <si>
     <t>怀表</t>
   </si>
   <si>
     <t>使用时，会显示当前的时间，耐久-1</t>
   </si>
   <si>
+    <t>Icon_Item_Tool_PocketWatch</t>
+  </si>
+  <si>
+    <t>Sprite_Item_Tool_PocketWatch</t>
+  </si>
+  <si>
     <t>燃液补充瓶</t>
   </si>
   <si>
     <t>开启后，每秒消耗1耐久，使玩家手中的打火机耐久+1</t>
   </si>
   <si>
+    <t>Icon_Item_Tool_FuelCan</t>
+  </si>
+  <si>
+    <t>Sprite_Item_Tool_FuelCan</t>
+  </si>
+  <si>
     <t>八音盒</t>
   </si>
   <si>
     <t>开启后，随身响起八音盒的音乐，角色每秒恢复1点San值，最多生效1个。</t>
   </si>
   <si>
-    <t>IconName</t>
-  </si>
-  <si>
-    <t>图标名称</t>
-  </si>
-  <si>
-    <t>SpriteName</t>
-  </si>
-  <si>
-    <t>渲染图片</t>
-  </si>
-  <si>
-    <t>Icon_Item_Tool_FlashLight</t>
-  </si>
-  <si>
-    <t>Icon_Item_Tool_Firefly</t>
-  </si>
-  <si>
-    <t>Icon_Item_Tool_WowTentacle</t>
-  </si>
-  <si>
-    <t>Icon_Item_Tool_PocketWatch</t>
-  </si>
-  <si>
-    <t>Icon_Item_Tool_FuelCan</t>
-  </si>
-  <si>
     <t>Icon_Item_Tool_MusicBox</t>
   </si>
   <si>
-    <t>Sprite_Item_Tool_FlashLight</t>
-  </si>
-  <si>
-    <t>Sprite_Item_Tool_Firefly</t>
-  </si>
-  <si>
-    <t>Sprite_Item_Tool_WowTentacle</t>
-  </si>
-  <si>
-    <t>Sprite_Item_Tool_PocketWatch</t>
-  </si>
-  <si>
-    <t>Sprite_Item_Tool_FuelCan</t>
-  </si>
-  <si>
     <t>Sprite_Item_Tool_MusicBox</t>
-  </si>
-  <si>
-    <t>PrefabName</t>
-  </si>
-  <si>
-    <t>预制体名称</t>
-  </si>
-  <si>
-    <t>P_Item_Tool</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -205,16 +218,346 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -222,9 +565,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -254,17 +839,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -514,36 +1143,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
     <col min="4" max="4" width="90" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7083333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1416666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.425" style="1" customWidth="1"/>
     <col min="8" max="8" width="34" customWidth="1"/>
-    <col min="9" max="9" width="26.7109375" customWidth="1"/>
+    <col min="9" max="9" width="26.7083333333333" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="12" max="12" width="27.42578125" customWidth="1"/>
-    <col min="13" max="13" width="24.7109375" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="27.425" customWidth="1"/>
+    <col min="13" max="13" width="24.7083333333333" customWidth="1"/>
+    <col min="14" max="14" width="15.2833333333333" customWidth="1"/>
     <col min="16" max="16" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -566,118 +1195,118 @@
         <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="40.5">
+    <row r="4" ht="40.5" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="45">
+    <row r="5" ht="27" spans="2:13">
       <c r="B5" s="1">
         <v>250001</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1">
         <v>900001</v>
@@ -686,60 +1315,60 @@
         <v>200</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="60">
+    <row r="6" ht="40.5" spans="2:13">
       <c r="B6" s="1">
         <v>250002</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1">
         <v>900001</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="60">
+    <row r="7" ht="40.5" spans="2:13">
       <c r="B7" s="1">
         <v>250003</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E7" s="1">
         <v>900001</v>
@@ -748,29 +1377,29 @@
         <v>100</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="J7" s="2" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="2:13">
       <c r="B8" s="1">
         <v>250004</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E8" s="1">
         <v>900001</v>
@@ -779,29 +1408,29 @@
         <v>10</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="2:13">
       <c r="B9" s="1">
         <v>250005</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E9" s="1">
         <v>900001</v>
@@ -813,26 +1442,26 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>47</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="2:13">
       <c r="B10" s="1">
         <v>250006</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1">
         <v>900001</v>
@@ -844,13 +1473,13 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -858,5 +1487,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/AAA-Luban-Excel/Datas/item_Tools.xlsx
+++ b/AAA-Luban-Excel/Datas/item_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="25590" windowHeight="11200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -104,12 +104,6 @@
     <t>预制体名称</t>
   </si>
   <si>
-    <t>聚光手电</t>
-  </si>
-  <si>
-    <t>开启后，以扇形照亮鼠标指示方向（最多生效一个），每秒消耗1点耐久，归0时自动销毁，被丢掉后，以玩家丢掉时的角色朝向放置（只有左右），并保持丢掉时的开启或关闭状态</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -122,14 +116,6 @@
     <t>P_Item_Tool</t>
   </si>
   <si>
-    <t>萤火虫</t>
-  </si>
-  <si>
-    <t>开启后，场景里会冒出1只小萤火虫，在场景内随意飞行，照亮极小的区域，会跟随玩家移动到下一间
-如果玩家将其丢掉，则萤火虫会存在于这个房间内，一个房间内最多6只萤火虫
-（玩家靠近时可以按E捕捉，但萤火虫在白天是不可见也不可交互的）</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -139,47 +125,22 @@
     <t>Sprite_Item_Tool_Firefly</t>
   </si>
   <si>
-    <t>奇妙触手</t>
-  </si>
-  <si>
-    <t>如果玩家持有，每秒对身边小范围内的单位造成伤害，每秒消耗1点耐久并降低1点San值，耐久归0时自动销毁
-如果散落在地，每秒对身边小范围内的单位造成伤害（包含玩家），耐久归0时自动销毁</t>
-  </si>
-  <si>
     <t>Icon_Item_Tool_WowTentacle</t>
   </si>
   <si>
     <t>Sprite_Item_Tool_WowTentacle</t>
   </si>
   <si>
-    <t>怀表</t>
-  </si>
-  <si>
-    <t>使用时，会显示当前的时间，耐久-1</t>
-  </si>
-  <si>
     <t>Icon_Item_Tool_PocketWatch</t>
   </si>
   <si>
     <t>Sprite_Item_Tool_PocketWatch</t>
   </si>
   <si>
-    <t>燃液补充瓶</t>
-  </si>
-  <si>
-    <t>开启后，每秒消耗1耐久，使玩家手中的打火机耐久+1</t>
-  </si>
-  <si>
     <t>Icon_Item_Tool_FuelCan</t>
   </si>
   <si>
     <t>Sprite_Item_Tool_FuelCan</t>
-  </si>
-  <si>
-    <t>八音盒</t>
-  </si>
-  <si>
-    <t>开启后，随身响起八音盒的音乐，角色每秒恢复1点San值，最多生效1个。</t>
   </si>
   <si>
     <t>Icon_Item_Tool_MusicBox</t>
@@ -813,7 +774,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -831,12 +792,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1152,23 +1107,23 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F3" sqref="F3:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="90" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.7083333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.1416666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.425" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7090909090909" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.7090909090909" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1454545454545" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.4272727272727" style="1" customWidth="1"/>
     <col min="8" max="8" width="34" customWidth="1"/>
-    <col min="9" max="9" width="26.7083333333333" customWidth="1"/>
+    <col min="9" max="9" width="26.7090909090909" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="12" max="12" width="27.425" customWidth="1"/>
-    <col min="13" max="13" width="24.7083333333333" customWidth="1"/>
-    <col min="14" max="14" width="15.2833333333333" customWidth="1"/>
+    <col min="12" max="12" width="27.4272727272727" customWidth="1"/>
+    <col min="13" max="13" width="24.7090909090909" customWidth="1"/>
+    <col min="14" max="14" width="15.2818181818182" customWidth="1"/>
     <col min="16" max="16" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1212,10 +1167,10 @@
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>11</v>
@@ -1241,21 +1196,11 @@
         <v>13</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
         <v>14</v>
       </c>
@@ -1266,7 +1211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="40.5" spans="1:10">
+    <row r="4" ht="42" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -1298,15 +1243,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" ht="27" spans="2:13">
+    <row r="5" spans="2:13">
       <c r="B5" s="1">
         <v>250001</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>26</v>
+      <c r="C5" s="2">
+        <v>704001</v>
+      </c>
+      <c r="D5" s="2">
+        <v>804001</v>
       </c>
       <c r="E5" s="1">
         <v>900001</v>
@@ -1315,60 +1260,60 @@
         <v>200</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" ht="40.5" spans="2:13">
+    <row r="6" spans="2:13">
       <c r="B6" s="1">
         <v>250002</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>32</v>
+      <c r="C6" s="2">
+        <v>704002</v>
+      </c>
+      <c r="D6" s="2">
+        <v>804002</v>
       </c>
       <c r="E6" s="1">
         <v>900001</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" ht="40.5" spans="2:13">
+    <row r="7" spans="2:13">
       <c r="B7" s="1">
         <v>250003</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>37</v>
+      <c r="C7" s="2">
+        <v>704003</v>
+      </c>
+      <c r="D7" s="2">
+        <v>804003</v>
       </c>
       <c r="E7" s="1">
         <v>900001</v>
@@ -1377,16 +1322,16 @@
         <v>100</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="J7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -1395,11 +1340,11 @@
       <c r="B8" s="1">
         <v>250004</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>41</v>
+      <c r="C8" s="2">
+        <v>704004</v>
+      </c>
+      <c r="D8" s="2">
+        <v>804004</v>
       </c>
       <c r="E8" s="1">
         <v>900001</v>
@@ -1408,16 +1353,16 @@
         <v>10</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -1426,11 +1371,11 @@
       <c r="B9" s="1">
         <v>250005</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>45</v>
+      <c r="C9" s="2">
+        <v>704005</v>
+      </c>
+      <c r="D9" s="2">
+        <v>804005</v>
       </c>
       <c r="E9" s="1">
         <v>900001</v>
@@ -1442,13 +1387,13 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -1457,11 +1402,11 @@
       <c r="B10" s="1">
         <v>250006</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>49</v>
+      <c r="C10" s="2">
+        <v>704006</v>
+      </c>
+      <c r="D10" s="2">
+        <v>804006</v>
       </c>
       <c r="E10" s="1">
         <v>900001</v>
@@ -1473,13 +1418,13 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>

--- a/AAA-Luban-Excel/Datas/item_Tools.xlsx
+++ b/AAA-Luban-Excel/Datas/item_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25590" windowHeight="11200"/>
+    <workbookView windowWidth="28185" windowHeight="6270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -104,6 +104,9 @@
     <t>预制体名称</t>
   </si>
   <si>
+    <t>聚光手电</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -116,6 +119,9 @@
     <t>P_Item_Tool</t>
   </si>
   <si>
+    <t>萤火虫</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
@@ -125,22 +131,34 @@
     <t>Sprite_Item_Tool_Firefly</t>
   </si>
   <si>
+    <t>奇妙触手</t>
+  </si>
+  <si>
     <t>Icon_Item_Tool_WowTentacle</t>
   </si>
   <si>
     <t>Sprite_Item_Tool_WowTentacle</t>
   </si>
   <si>
+    <t>怀表</t>
+  </si>
+  <si>
     <t>Icon_Item_Tool_PocketWatch</t>
   </si>
   <si>
     <t>Sprite_Item_Tool_PocketWatch</t>
   </si>
   <si>
+    <t>燃液补充瓶</t>
+  </si>
+  <si>
     <t>Icon_Item_Tool_FuelCan</t>
   </si>
   <si>
     <t>Sprite_Item_Tool_FuelCan</t>
+  </si>
+  <si>
+    <t>八音盒</t>
   </si>
   <si>
     <t>Icon_Item_Tool_MusicBox</t>
@@ -1104,30 +1122,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:G3"/>
+      <selection activeCell="D5" sqref="D5:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7090909090909" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.7090909090909" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.1454545454545" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.4272727272727" style="1" customWidth="1"/>
-    <col min="8" max="8" width="34" customWidth="1"/>
-    <col min="9" max="9" width="26.7090909090909" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="12" max="12" width="27.4272727272727" customWidth="1"/>
-    <col min="13" max="13" width="24.7090909090909" customWidth="1"/>
-    <col min="14" max="14" width="15.2818181818182" customWidth="1"/>
-    <col min="16" max="16" width="19" customWidth="1"/>
+    <col min="4" max="5" width="23.7083333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.7083333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.1416666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.425" style="1" customWidth="1"/>
+    <col min="9" max="9" width="34" customWidth="1"/>
+    <col min="10" max="10" width="26.7083333333333" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="13" max="13" width="27.425" customWidth="1"/>
+    <col min="14" max="14" width="24.7083333333333" customWidth="1"/>
+    <col min="15" max="15" width="15.2833333333333" customWidth="1"/>
+    <col min="17" max="17" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1137,29 +1155,30 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -1169,20 +1188,18 @@
       <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>12</v>
@@ -1190,8 +1207,11 @@
       <c r="J2" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="K2" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1201,17 +1221,18 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="K3" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" ht="42" spans="1:10">
+    <row r="4" ht="40.5" spans="1:11">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -1221,213 +1242,232 @@
       <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:14">
       <c r="B5" s="1">
         <v>250001</v>
       </c>
       <c r="C5" s="2">
         <v>704001</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2">
         <v>804001</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>900001</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>200</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="1"/>
+      <c r="K5" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:14">
       <c r="B6" s="1">
         <v>250002</v>
       </c>
       <c r="C6" s="2">
         <v>704002</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2">
         <v>804002</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>900001</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="1"/>
       <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:14">
       <c r="B7" s="1">
         <v>250003</v>
       </c>
       <c r="C7" s="2">
         <v>704003</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="2">
         <v>804003</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>900001</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>100</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="1"/>
       <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:14">
       <c r="B8" s="1">
         <v>250004</v>
       </c>
       <c r="C8" s="2">
         <v>704004</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="2">
         <v>804004</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>900001</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>10</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="1"/>
       <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:14">
       <c r="B9" s="1">
         <v>250005</v>
       </c>
       <c r="C9" s="2">
         <v>704005</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="2">
         <v>804005</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>900001</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>50</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>1</v>
       </c>
-      <c r="H9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="1"/>
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:14">
       <c r="B10" s="1">
         <v>250006</v>
       </c>
       <c r="C10" s="2">
         <v>704006</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="2">
         <v>804006</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>900001</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>120</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>1</v>
       </c>
-      <c r="H10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="1"/>
+      <c r="I10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAA-Luban-Excel/Datas/item_Tools.xlsx
+++ b/AAA-Luban-Excel/Datas/item_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28185" windowHeight="6270"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D10"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1215,13 +1215,25 @@
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="I3" s="4" t="s">
         <v>14</v>
       </c>

--- a/AAA-Luban-Excel/Datas/item_Tools.xlsx
+++ b/AAA-Luban-Excel/Datas/item_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="10995" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/AAA-Luban-Excel/Datas/item_Tools.xlsx
+++ b/AAA-Luban-Excel/Datas/item_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10995" windowHeight="8025"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -342,12 +342,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -668,7 +674,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -692,16 +698,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -710,90 +716,96 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -809,6 +821,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1125,17 +1149,17 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="4" max="5" width="23.7083333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.7083333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.1416666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.425" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="15" style="3" customWidth="1"/>
+    <col min="4" max="5" width="23.7083333333333" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.7083333333333" style="3" customWidth="1"/>
+    <col min="7" max="7" width="22.1416666666667" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.425" style="3" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
     <col min="10" max="10" width="26.7083333333333" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
@@ -1146,340 +1170,342 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="1:11">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
-      <c r="B5" s="1">
+    <row r="5" s="1" customFormat="1" spans="1:14">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8">
         <v>250001</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="9">
         <v>704001</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="9">
         <v>804001</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="8">
         <v>900001</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="8">
         <v>200</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>250002</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>704002</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>804002</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="3">
         <v>900001</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I6" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>250003</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>704003</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>804003</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="3">
         <v>900001</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="3">
         <v>100</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I7" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>250004</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>704004</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>804004</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="3">
         <v>900001</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="3">
         <v>10</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>250005</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>704005</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <v>804005</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="3">
         <v>900001</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="3">
         <v>50</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="3">
         <v>1</v>
       </c>
       <c r="I9" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="2:14">
-      <c r="B10" s="1">
+    <row r="10" s="2" customFormat="1" spans="1:14">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10">
         <v>250006</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="11">
         <v>704006</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="11">
         <v>804006</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="10">
         <v>900001</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="10">
         <v>120</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="10">
         <v>1</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAA-Luban-Excel/Datas/item_Tools.xlsx
+++ b/AAA-Luban-Excel/Datas/item_Tools.xlsx
@@ -1,33 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5089D214-DED2-4FC9-8204-16D729F12008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -116,9 +109,6 @@
     <t>Sprite_Item_Tool_FlashLight</t>
   </si>
   <si>
-    <t>P_Item_Tool</t>
-  </si>
-  <si>
     <t>萤火虫</t>
   </si>
   <si>
@@ -165,23 +155,35 @@
   </si>
   <si>
     <t>Sprite_Item_Tool_MusicBox</t>
+  </si>
+  <si>
+    <t>P_Item_Tool_FlashLight</t>
+  </si>
+  <si>
+    <t>P_Item_Tool_Firefly</t>
+  </si>
+  <si>
+    <t>P_Item_Tool_WowTentacle</t>
+  </si>
+  <si>
+    <t>P_Item_Tool_PocketWatch</t>
+  </si>
+  <si>
+    <t>P_Item_Tool_FuelCan</t>
+  </si>
+  <si>
+    <t>P_Item_Tool_MusicBox</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -197,152 +199,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,194 +213,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -550,251 +222,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -836,61 +266,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1140,36 +526,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="I2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="3"/>
     <col min="3" max="3" width="15" style="3" customWidth="1"/>
-    <col min="4" max="5" width="23.7083333333333" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.7083333333333" style="3" customWidth="1"/>
-    <col min="7" max="7" width="22.1416666666667" style="3" customWidth="1"/>
-    <col min="8" max="8" width="17.425" style="3" customWidth="1"/>
+    <col min="4" max="5" width="23.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="3" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
-    <col min="10" max="10" width="26.7083333333333" customWidth="1"/>
-    <col min="11" max="11" width="20" customWidth="1"/>
-    <col min="13" max="13" width="27.425" customWidth="1"/>
-    <col min="14" max="14" width="24.7083333333333" customWidth="1"/>
-    <col min="15" max="15" width="15.2833333333333" customWidth="1"/>
+    <col min="10" max="10" width="31.28515625" customWidth="1"/>
+    <col min="11" max="11" width="29.5703125" customWidth="1"/>
+    <col min="13" max="13" width="27.42578125" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" customWidth="1"/>
     <col min="17" max="17" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14" ht="27">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1202,7 +588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -1235,7 +621,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:14">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -1268,7 +654,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="40.5" spans="1:11">
+    <row r="4" spans="1:14" ht="40.5">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
@@ -1301,7 +687,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:14">
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="30">
       <c r="A5" s="8"/>
       <c r="B5" s="8">
         <v>250001</v>
@@ -1331,12 +717,12 @@
         <v>28</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="1:14">
       <c r="B6" s="3">
         <v>250002</v>
       </c>
@@ -1344,7 +730,7 @@
         <v>704002</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="4">
         <v>804002</v>
@@ -1353,24 +739,24 @@
         <v>900001</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="K6" s="4" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="1:14">
       <c r="B7" s="3">
         <v>250003</v>
       </c>
@@ -1378,7 +764,7 @@
         <v>704003</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="4">
         <v>804003</v>
@@ -1390,21 +776,21 @@
         <v>100</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="K7" s="4" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="1:14">
       <c r="B8" s="3">
         <v>250004</v>
       </c>
@@ -1412,7 +798,7 @@
         <v>704004</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="4">
         <v>804004</v>
@@ -1424,21 +810,21 @@
         <v>10</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="K8" s="4" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="1:14">
       <c r="B9" s="3">
         <v>250005</v>
       </c>
@@ -1446,7 +832,7 @@
         <v>704005</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="4">
         <v>804005</v>
@@ -1461,18 +847,18 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="K9" s="4" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:14">
+    <row r="10" spans="1:14" s="2" customFormat="1">
       <c r="A10" s="10"/>
       <c r="B10" s="10">
         <v>250006</v>
@@ -1481,7 +867,7 @@
         <v>704006</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="11">
         <v>804006</v>
@@ -1496,13 +882,13 @@
         <v>1</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="10" t="s">
-        <v>45</v>
-      </c>
       <c r="K10" s="11" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
@@ -1510,6 +896,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>